--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.223867666666667</v>
+        <v>0.7368846666666666</v>
       </c>
       <c r="H2">
-        <v>3.671603</v>
+        <v>2.210654</v>
       </c>
       <c r="I2">
-        <v>0.2362882870487179</v>
+        <v>0.1365512798651915</v>
       </c>
       <c r="J2">
-        <v>0.2492245847267187</v>
+        <v>0.1426235012188444</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.139245</v>
+        <v>0.08425766666666668</v>
       </c>
       <c r="N2">
-        <v>0.417735</v>
+        <v>0.252773</v>
       </c>
       <c r="O2">
-        <v>0.01212793695325064</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="P2">
-        <v>0.01283499108585158</v>
+        <v>0.008027752567511702</v>
       </c>
       <c r="Q2">
-        <v>0.170417453245</v>
+        <v>0.06208818261577778</v>
       </c>
       <c r="R2">
-        <v>1.533757079205</v>
+        <v>0.558793643542</v>
       </c>
       <c r="S2">
-        <v>0.002865689448118441</v>
+        <v>0.001045272890568564</v>
       </c>
       <c r="T2">
-        <v>0.003198795323342497</v>
+        <v>0.001144946178097086</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.223867666666667</v>
+        <v>0.7368846666666666</v>
       </c>
       <c r="H3">
-        <v>3.671603</v>
+        <v>2.210654</v>
       </c>
       <c r="I3">
-        <v>0.2362882870487179</v>
+        <v>0.1365512798651915</v>
       </c>
       <c r="J3">
-        <v>0.2492245847267187</v>
+        <v>0.1426235012188444</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>28.142075</v>
       </c>
       <c r="O3">
-        <v>0.8170378621222814</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="P3">
-        <v>0.8646708601442703</v>
+        <v>0.8937569077249424</v>
       </c>
       <c r="Q3">
-        <v>11.48072522180278</v>
+        <v>6.912487851894444</v>
       </c>
       <c r="R3">
-        <v>103.326526996225</v>
+        <v>62.21239066705</v>
       </c>
       <c r="S3">
-        <v>0.1930564768948204</v>
+        <v>0.1163737744215059</v>
       </c>
       <c r="T3">
-        <v>0.2154972360447504</v>
+        <v>0.1274707394182589</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.223867666666667</v>
+        <v>0.7368846666666666</v>
       </c>
       <c r="H4">
-        <v>3.671603</v>
+        <v>2.210654</v>
       </c>
       <c r="I4">
-        <v>0.2362882870487179</v>
+        <v>0.1365512798651915</v>
       </c>
       <c r="J4">
-        <v>0.2492245847267187</v>
+        <v>0.1426235012188444</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.006356333333333333</v>
+        <v>1.534105</v>
       </c>
       <c r="N4">
-        <v>0.019069</v>
+        <v>3.06821</v>
       </c>
       <c r="O4">
-        <v>0.0005536228225107701</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="P4">
-        <v>0.0005858988234553099</v>
+        <v>0.09744249071366434</v>
       </c>
       <c r="Q4">
-        <v>0.007779310845222222</v>
+        <v>1.130458451556667</v>
       </c>
       <c r="R4">
-        <v>0.07001379760699999</v>
+        <v>6.78275070934</v>
       </c>
       <c r="S4">
-        <v>0.0001308145884021462</v>
+        <v>0.01903160188531631</v>
       </c>
       <c r="T4">
-        <v>0.0001460203909675226</v>
+        <v>0.01389758919306754</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.223867666666667</v>
+        <v>0.7368846666666666</v>
       </c>
       <c r="H5">
-        <v>3.671603</v>
+        <v>2.210654</v>
       </c>
       <c r="I5">
-        <v>0.2362882870487179</v>
+        <v>0.1365512798651915</v>
       </c>
       <c r="J5">
-        <v>0.2492245847267187</v>
+        <v>0.1426235012188444</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.897453</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N5">
-        <v>3.794906</v>
+        <v>0.024335</v>
       </c>
       <c r="O5">
-        <v>0.1652640335793479</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="P5">
-        <v>0.1165992427774658</v>
+        <v>0.0007728489938814559</v>
       </c>
       <c r="Q5">
-        <v>2.322231375719667</v>
+        <v>0.005977362787777777</v>
       </c>
       <c r="R5">
-        <v>13.933388254318</v>
+        <v>0.05379626509</v>
       </c>
       <c r="S5">
-        <v>0.03904995540522591</v>
+        <v>0.0001006306678006986</v>
       </c>
       <c r="T5">
-        <v>0.02905939786066378</v>
+        <v>0.0001102264294208345</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.223867666666667</v>
+        <v>0.9252306666666666</v>
       </c>
       <c r="H6">
-        <v>3.671603</v>
+        <v>2.775692</v>
       </c>
       <c r="I6">
-        <v>0.2362882870487179</v>
+        <v>0.171453468119196</v>
       </c>
       <c r="J6">
-        <v>0.2492245847267187</v>
+        <v>0.1790777350707694</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05759666666666666</v>
+        <v>0.08425766666666668</v>
       </c>
       <c r="N6">
-        <v>0.17279</v>
+        <v>0.252773</v>
       </c>
       <c r="O6">
-        <v>0.005016544522609259</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="P6">
-        <v>0.005309007168957103</v>
+        <v>0.008027752567511702</v>
       </c>
       <c r="Q6">
-        <v>0.07049069804111112</v>
+        <v>0.07795777710177779</v>
       </c>
       <c r="R6">
-        <v>0.63441628237</v>
+        <v>0.7016199939160001</v>
       </c>
       <c r="S6">
-        <v>0.00118535071215097</v>
+        <v>0.001312442200438439</v>
       </c>
       <c r="T6">
-        <v>0.001323135106994506</v>
+        <v>0.001437591747498549</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>2.775692</v>
       </c>
       <c r="I7">
-        <v>0.178631379278977</v>
+        <v>0.171453468119196</v>
       </c>
       <c r="J7">
-        <v>0.1884110798551137</v>
+        <v>0.1790777350707694</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.139245</v>
+        <v>9.380691666666667</v>
       </c>
       <c r="N7">
-        <v>0.417735</v>
+        <v>28.142075</v>
       </c>
       <c r="O7">
-        <v>0.01212793695325064</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="P7">
-        <v>0.01283499108585158</v>
+        <v>0.8937569077249424</v>
       </c>
       <c r="Q7">
-        <v>0.12883374418</v>
+        <v>8.679303604544446</v>
       </c>
       <c r="R7">
-        <v>1.15950369762</v>
+        <v>78.11373244089999</v>
       </c>
       <c r="S7">
-        <v>0.002166430105767636</v>
+        <v>0.1461186394033524</v>
       </c>
       <c r="T7">
-        <v>0.002418254530416055</v>
+        <v>0.1600519627392373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>2.775692</v>
       </c>
       <c r="I8">
-        <v>0.178631379278977</v>
+        <v>0.171453468119196</v>
       </c>
       <c r="J8">
-        <v>0.1884110798551137</v>
+        <v>0.1790777350707694</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.380691666666667</v>
+        <v>1.534105</v>
       </c>
       <c r="N8">
-        <v>28.142075</v>
+        <v>3.06821</v>
       </c>
       <c r="O8">
-        <v>0.8170378621222814</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="P8">
-        <v>0.8646708601442703</v>
+        <v>0.09744249071366434</v>
       </c>
       <c r="Q8">
-        <v>8.679303604544446</v>
+        <v>1.419400991886667</v>
       </c>
       <c r="R8">
-        <v>78.11373244089999</v>
+        <v>8.516405951319999</v>
       </c>
       <c r="S8">
-        <v>0.1459486002340497</v>
+        <v>0.023896034883911</v>
       </c>
       <c r="T8">
-        <v>0.162913570479032</v>
+        <v>0.01744978053665749</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>2.775692</v>
       </c>
       <c r="I9">
-        <v>0.178631379278977</v>
+        <v>0.171453468119196</v>
       </c>
       <c r="J9">
-        <v>0.1884110798551137</v>
+        <v>0.1790777350707694</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.006356333333333333</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N9">
-        <v>0.019069</v>
+        <v>0.024335</v>
       </c>
       <c r="O9">
-        <v>0.0005536228225107701</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="P9">
-        <v>0.0005858988234553099</v>
+        <v>0.0007728489938814559</v>
       </c>
       <c r="Q9">
-        <v>0.005881074527555555</v>
+        <v>0.007505162757777777</v>
       </c>
       <c r="R9">
-        <v>0.05292967074799999</v>
+        <v>0.06754646482</v>
       </c>
       <c r="S9">
-        <v>9.889440838541914E-05</v>
+        <v>0.0001263516314941446</v>
       </c>
       <c r="T9">
-        <v>0.0001103898300130556</v>
+        <v>0.000138400047376014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9252306666666666</v>
+        <v>1.654700333333333</v>
       </c>
       <c r="H10">
-        <v>2.775692</v>
+        <v>4.964101</v>
       </c>
       <c r="I10">
-        <v>0.178631379278977</v>
+        <v>0.3066306825627515</v>
       </c>
       <c r="J10">
-        <v>0.1884110798551137</v>
+        <v>0.3202660683327045</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.897453</v>
+        <v>0.08425766666666668</v>
       </c>
       <c r="N10">
-        <v>3.794906</v>
+        <v>0.252773</v>
       </c>
       <c r="O10">
-        <v>0.1652640335793479</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="P10">
-        <v>0.1165992427774658</v>
+        <v>0.008027752567511702</v>
       </c>
       <c r="Q10">
-        <v>1.755581704158667</v>
+        <v>0.1394211891192222</v>
       </c>
       <c r="R10">
-        <v>10.533490224952</v>
+        <v>1.254790702073</v>
       </c>
       <c r="S10">
-        <v>0.02952134226348609</v>
+        <v>0.002347196893473288</v>
       </c>
       <c r="T10">
-        <v>0.02196858924199091</v>
+        <v>0.002571016752344747</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9252306666666666</v>
+        <v>1.654700333333333</v>
       </c>
       <c r="H11">
-        <v>2.775692</v>
+        <v>4.964101</v>
       </c>
       <c r="I11">
-        <v>0.178631379278977</v>
+        <v>0.3066306825627515</v>
       </c>
       <c r="J11">
-        <v>0.1884110798551137</v>
+        <v>0.3202660683327045</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.05759666666666666</v>
+        <v>9.380691666666667</v>
       </c>
       <c r="N11">
-        <v>0.17279</v>
+        <v>28.142075</v>
       </c>
       <c r="O11">
-        <v>0.005016544522609259</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="P11">
-        <v>0.005309007168957103</v>
+        <v>0.8937569077249424</v>
       </c>
       <c r="Q11">
-        <v>0.05329020229777778</v>
+        <v>15.52223362773056</v>
       </c>
       <c r="R11">
-        <v>0.47961182068</v>
+        <v>139.700102649575</v>
       </c>
       <c r="S11">
-        <v>0.0008961122672880891</v>
+        <v>0.2613213872363436</v>
       </c>
       <c r="T11">
-        <v>0.001000275773661748</v>
+        <v>0.2862400108822631</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.820332</v>
+        <v>1.654700333333333</v>
       </c>
       <c r="H12">
-        <v>2.460996</v>
+        <v>4.964101</v>
       </c>
       <c r="I12">
-        <v>0.1583789231226106</v>
+        <v>0.3066306825627515</v>
       </c>
       <c r="J12">
-        <v>0.1670498433828809</v>
+        <v>0.3202660683327045</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.139245</v>
+        <v>1.534105</v>
       </c>
       <c r="N12">
-        <v>0.417735</v>
+        <v>3.06821</v>
       </c>
       <c r="O12">
-        <v>0.01212793695325064</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="P12">
-        <v>0.01283499108585158</v>
+        <v>0.09744249071366434</v>
       </c>
       <c r="Q12">
-        <v>0.11422712934</v>
+        <v>2.538484054868333</v>
       </c>
       <c r="R12">
-        <v>1.02804416406</v>
+        <v>15.23090432921</v>
       </c>
       <c r="S12">
-        <v>0.001920809594354752</v>
+        <v>0.04273612874312333</v>
       </c>
       <c r="T12">
-        <v>0.002144083250712179</v>
+        <v>0.03120752338941135</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.820332</v>
+        <v>1.654700333333333</v>
       </c>
       <c r="H13">
-        <v>2.460996</v>
+        <v>4.964101</v>
       </c>
       <c r="I13">
-        <v>0.1583789231226106</v>
+        <v>0.3066306825627515</v>
       </c>
       <c r="J13">
-        <v>0.1670498433828809</v>
+        <v>0.3202660683327045</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>9.380691666666667</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N13">
-        <v>28.142075</v>
+        <v>0.024335</v>
       </c>
       <c r="O13">
-        <v>0.8170378621222814</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="P13">
-        <v>0.8646708601442703</v>
+        <v>0.0007728489938814559</v>
       </c>
       <c r="Q13">
-        <v>7.6952815563</v>
+        <v>0.01342237753722222</v>
       </c>
       <c r="R13">
-        <v>69.2575340067</v>
+        <v>0.120801397835</v>
       </c>
       <c r="S13">
-        <v>0.1294015767533269</v>
+        <v>0.0002259696898113029</v>
       </c>
       <c r="T13">
-        <v>0.1444431317648412</v>
+        <v>0.0002475173086853003</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.820332</v>
+        <v>0.6892575000000001</v>
       </c>
       <c r="H14">
-        <v>2.460996</v>
+        <v>1.378515</v>
       </c>
       <c r="I14">
-        <v>0.1583789231226106</v>
+        <v>0.1277255424616637</v>
       </c>
       <c r="J14">
-        <v>0.1670498433828809</v>
+        <v>0.0889368647389846</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.006356333333333333</v>
+        <v>0.08425766666666668</v>
       </c>
       <c r="N14">
-        <v>0.019069</v>
+        <v>0.252773</v>
       </c>
       <c r="O14">
-        <v>0.0005536228225107701</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="P14">
-        <v>0.0005858988234553099</v>
+        <v>0.008027752567511702</v>
       </c>
       <c r="Q14">
-        <v>0.005214303635999999</v>
+        <v>0.05807522868250001</v>
       </c>
       <c r="R14">
-        <v>0.04692873272399999</v>
+        <v>0.3484513720950001</v>
       </c>
       <c r="S14">
-        <v>8.768218644535596E-05</v>
+        <v>0.0009777136259736647</v>
       </c>
       <c r="T14">
-        <v>9.787430669642367E-05</v>
+        <v>0.0007139631442548245</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.820332</v>
+        <v>0.6892575000000001</v>
       </c>
       <c r="H15">
-        <v>2.460996</v>
+        <v>1.378515</v>
       </c>
       <c r="I15">
-        <v>0.1583789231226106</v>
+        <v>0.1277255424616637</v>
       </c>
       <c r="J15">
-        <v>0.1670498433828809</v>
+        <v>0.0889368647389846</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.897453</v>
+        <v>9.380691666666667</v>
       </c>
       <c r="N15">
-        <v>3.794906</v>
+        <v>28.142075</v>
       </c>
       <c r="O15">
-        <v>0.1652640335793479</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="P15">
-        <v>0.1165992427774658</v>
+        <v>0.8937569077249424</v>
       </c>
       <c r="Q15">
-        <v>1.556541414396</v>
+        <v>6.465712086437502</v>
       </c>
       <c r="R15">
-        <v>9.339248486375999</v>
+        <v>38.79427251862501</v>
       </c>
       <c r="S15">
-        <v>0.02617433966919608</v>
+        <v>0.1088521724657017</v>
       </c>
       <c r="T15">
-        <v>0.01947788524453817</v>
+        <v>0.07948793721186634</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.820332</v>
+        <v>0.6892575000000001</v>
       </c>
       <c r="H16">
-        <v>2.460996</v>
+        <v>1.378515</v>
       </c>
       <c r="I16">
-        <v>0.1583789231226106</v>
+        <v>0.1277255424616637</v>
       </c>
       <c r="J16">
-        <v>0.1670498433828809</v>
+        <v>0.0889368647389846</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.05759666666666666</v>
+        <v>1.534105</v>
       </c>
       <c r="N16">
-        <v>0.17279</v>
+        <v>3.06821</v>
       </c>
       <c r="O16">
-        <v>0.005016544522609259</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="P16">
-        <v>0.005309007168957103</v>
+        <v>0.09744249071366434</v>
       </c>
       <c r="Q16">
-        <v>0.04724838876</v>
+        <v>1.0573933770375</v>
       </c>
       <c r="R16">
-        <v>0.4252354988399999</v>
+        <v>4.229573508150001</v>
       </c>
       <c r="S16">
-        <v>0.0007945149192874851</v>
+        <v>0.01780152977779662</v>
       </c>
       <c r="T16">
-        <v>0.0008868688160928758</v>
+        <v>0.008666229616430928</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8065525</v>
+        <v>0.6892575000000001</v>
       </c>
       <c r="H17">
-        <v>1.613105</v>
+        <v>1.378515</v>
       </c>
       <c r="I17">
-        <v>0.1557185583298584</v>
+        <v>0.1277255424616637</v>
       </c>
       <c r="J17">
-        <v>0.1094958860600107</v>
+        <v>0.0889368647389846</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.139245</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N17">
-        <v>0.417735</v>
+        <v>0.024335</v>
       </c>
       <c r="O17">
-        <v>0.01212793695325064</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="P17">
-        <v>0.01283499108585158</v>
+        <v>0.0007728489938814559</v>
       </c>
       <c r="Q17">
-        <v>0.1123084028625</v>
+        <v>0.0055910270875</v>
       </c>
       <c r="R17">
-        <v>0.6738504171749999</v>
+        <v>0.033546162525</v>
       </c>
       <c r="S17">
-        <v>0.001888544857875605</v>
+        <v>9.412659219168633E-05</v>
       </c>
       <c r="T17">
-        <v>0.001405378721517658</v>
+        <v>6.873476643249537E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8065525</v>
+        <v>1.390322</v>
       </c>
       <c r="H18">
-        <v>1.613105</v>
+        <v>4.170966</v>
       </c>
       <c r="I18">
-        <v>0.1557185583298584</v>
+        <v>0.2576390269911973</v>
       </c>
       <c r="J18">
-        <v>0.1094958860600107</v>
+        <v>0.2690958306386971</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.380691666666667</v>
+        <v>0.08425766666666668</v>
       </c>
       <c r="N18">
-        <v>28.142075</v>
+        <v>0.252773</v>
       </c>
       <c r="O18">
-        <v>0.8170378621222814</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="P18">
-        <v>0.8646708601442703</v>
+        <v>0.008027752567511702</v>
       </c>
       <c r="Q18">
-        <v>7.566020315479167</v>
+        <v>0.1171452876353334</v>
       </c>
       <c r="R18">
-        <v>45.396121892875</v>
+        <v>1.054307588718</v>
       </c>
       <c r="S18">
-        <v>0.1272279579905913</v>
+        <v>0.001972175513347272</v>
       </c>
       <c r="T18">
-        <v>0.09467790198176847</v>
+        <v>0.002160234745316495</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8065525</v>
+        <v>1.390322</v>
       </c>
       <c r="H19">
-        <v>1.613105</v>
+        <v>4.170966</v>
       </c>
       <c r="I19">
-        <v>0.1557185583298584</v>
+        <v>0.2576390269911973</v>
       </c>
       <c r="J19">
-        <v>0.1094958860600107</v>
+        <v>0.2690958306386971</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.006356333333333333</v>
+        <v>9.380691666666667</v>
       </c>
       <c r="N19">
-        <v>0.019069</v>
+        <v>28.142075</v>
       </c>
       <c r="O19">
-        <v>0.0005536228225107701</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="P19">
-        <v>0.0005858988234553099</v>
+        <v>0.8937569077249424</v>
       </c>
       <c r="Q19">
-        <v>0.005126716540833333</v>
+        <v>13.04218199938333</v>
       </c>
       <c r="R19">
-        <v>0.030760299245</v>
+        <v>117.37963799445</v>
       </c>
       <c r="S19">
-        <v>8.620934777988418E-05</v>
+        <v>0.2195689856502966</v>
       </c>
       <c r="T19">
-        <v>6.415351081575694E-05</v>
+        <v>0.2405062574733168</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8065525</v>
+        <v>1.390322</v>
       </c>
       <c r="H20">
-        <v>1.613105</v>
+        <v>4.170966</v>
       </c>
       <c r="I20">
-        <v>0.1557185583298584</v>
+        <v>0.2576390269911973</v>
       </c>
       <c r="J20">
-        <v>0.1094958860600107</v>
+        <v>0.2690958306386971</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.897453</v>
+        <v>1.534105</v>
       </c>
       <c r="N20">
-        <v>3.794906</v>
+        <v>3.06821</v>
       </c>
       <c r="O20">
-        <v>0.1652640335793479</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="P20">
-        <v>0.1165992427774658</v>
+        <v>0.09744249071366434</v>
       </c>
       <c r="Q20">
-        <v>1.5303954607825</v>
+        <v>2.13289993181</v>
       </c>
       <c r="R20">
-        <v>6.12158184313</v>
+        <v>12.79739959086</v>
       </c>
       <c r="S20">
-        <v>0.02573467705275336</v>
+        <v>0.03590800025204768</v>
       </c>
       <c r="T20">
-        <v>0.01276713740184493</v>
+        <v>0.02622136797809704</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8065525</v>
+        <v>1.390322</v>
       </c>
       <c r="H21">
-        <v>1.613105</v>
+        <v>4.170966</v>
       </c>
       <c r="I21">
-        <v>0.1557185583298584</v>
+        <v>0.2576390269911973</v>
       </c>
       <c r="J21">
-        <v>0.1094958860600107</v>
+        <v>0.2690958306386971</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,338 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.05759666666666666</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N21">
-        <v>0.17279</v>
+        <v>0.024335</v>
       </c>
       <c r="O21">
-        <v>0.005016544522609259</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="P21">
-        <v>0.005309007168957103</v>
+        <v>0.0007728489938814559</v>
       </c>
       <c r="Q21">
-        <v>0.04645473549166666</v>
+        <v>0.01127782862333333</v>
       </c>
       <c r="R21">
-        <v>0.27872841295</v>
+        <v>0.10150045761</v>
       </c>
       <c r="S21">
-        <v>0.0007811690808582615</v>
+        <v>0.0001898655755057141</v>
       </c>
       <c r="T21">
-        <v>0.0005813144440639069</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.40357</v>
-      </c>
-      <c r="H22">
-        <v>4.210710000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.2709828522198361</v>
-      </c>
-      <c r="J22">
-        <v>0.2858186059752761</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.139245</v>
-      </c>
-      <c r="N22">
-        <v>0.417735</v>
-      </c>
-      <c r="O22">
-        <v>0.01212793695325064</v>
-      </c>
-      <c r="P22">
-        <v>0.01283499108585158</v>
-      </c>
-      <c r="Q22">
-        <v>0.19544010465</v>
-      </c>
-      <c r="R22">
-        <v>1.75896094185</v>
-      </c>
-      <c r="S22">
-        <v>0.003286462947134208</v>
-      </c>
-      <c r="T22">
-        <v>0.003668479259863194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.40357</v>
-      </c>
-      <c r="H23">
-        <v>4.210710000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.2709828522198361</v>
-      </c>
-      <c r="J23">
-        <v>0.2858186059752761</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>9.380691666666667</v>
-      </c>
-      <c r="N23">
-        <v>28.142075</v>
-      </c>
-      <c r="O23">
-        <v>0.8170378621222814</v>
-      </c>
-      <c r="P23">
-        <v>0.8646708601442703</v>
-      </c>
-      <c r="Q23">
-        <v>13.16645740258334</v>
-      </c>
-      <c r="R23">
-        <v>118.49811662325</v>
-      </c>
-      <c r="S23">
-        <v>0.221403250249493</v>
-      </c>
-      <c r="T23">
-        <v>0.2471390198738782</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.40357</v>
-      </c>
-      <c r="H24">
-        <v>4.210710000000001</v>
-      </c>
-      <c r="I24">
-        <v>0.2709828522198361</v>
-      </c>
-      <c r="J24">
-        <v>0.2858186059752761</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.006356333333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.019069</v>
-      </c>
-      <c r="O24">
-        <v>0.0005536228225107701</v>
-      </c>
-      <c r="P24">
-        <v>0.0005858988234553099</v>
-      </c>
-      <c r="Q24">
-        <v>0.008921558776666666</v>
-      </c>
-      <c r="R24">
-        <v>0.08029402899</v>
-      </c>
-      <c r="S24">
-        <v>0.0001500222914979646</v>
-      </c>
-      <c r="T24">
-        <v>0.0001674607849625511</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.40357</v>
-      </c>
-      <c r="H25">
-        <v>4.210710000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.2709828522198361</v>
-      </c>
-      <c r="J25">
-        <v>0.2858186059752761</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.897453</v>
-      </c>
-      <c r="N25">
-        <v>3.794906</v>
-      </c>
-      <c r="O25">
-        <v>0.1652640335793479</v>
-      </c>
-      <c r="P25">
-        <v>0.1165992427774658</v>
-      </c>
-      <c r="Q25">
-        <v>2.66320810721</v>
-      </c>
-      <c r="R25">
-        <v>15.97924864326</v>
-      </c>
-      <c r="S25">
-        <v>0.04478371918868646</v>
-      </c>
-      <c r="T25">
-        <v>0.03332623302842807</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1.40357</v>
-      </c>
-      <c r="H26">
-        <v>4.210710000000001</v>
-      </c>
-      <c r="I26">
-        <v>0.2709828522198361</v>
-      </c>
-      <c r="J26">
-        <v>0.2858186059752761</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.05759666666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.17279</v>
-      </c>
-      <c r="O26">
-        <v>0.005016544522609259</v>
-      </c>
-      <c r="P26">
-        <v>0.005309007168957103</v>
-      </c>
-      <c r="Q26">
-        <v>0.08084095343333335</v>
-      </c>
-      <c r="R26">
-        <v>0.7275685809000001</v>
-      </c>
-      <c r="S26">
-        <v>0.001359397543024453</v>
-      </c>
-      <c r="T26">
-        <v>0.001517413028144066</v>
+        <v>0.0002079704419668117</v>
       </c>
     </row>
   </sheetData>
